--- a/input/building_conditions.xlsx
+++ b/input/building_conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Brukere-felles\lfep\EBM\task_836\Energibruksmodell\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfep\work_space\Energibruksmodell\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4169CF69-7FBC-4CA0-85B7-E5F598904636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD62828-476A-428E-9348-5B35EFA21FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-870" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,16 +36,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Demolition</t>
-  </si>
-  <si>
     <t>condition</t>
   </si>
   <si>
-    <t>Renovation</t>
+    <t>small_measure</t>
   </si>
   <si>
-    <t>Small measure</t>
+    <t>renovation</t>
+  </si>
+  <si>
+    <t>demolition</t>
   </si>
 </sst>
 </file>
@@ -124,8 +124,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -432,32 +431,32 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
